--- a/src/Ecobit/ZCO02/zcor0620.w3mi.data.xlsx
+++ b/src/Ecobit/ZCO02/zcor0620.w3mi.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614189FB-F90E-4F9A-AB99-61052D022CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B37F07-B9F5-40FF-A4DB-B40E8117C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B98911D-C4EA-4E70-891E-414D75F51EF6}"/>
   </bookViews>
@@ -421,7 +421,7 @@
             <charset val="129"/>
           </rPr>
           <t>[WBS번호]
-프로젝트번호/E(비용화),F(자산화)-01(차수)
+프로젝트번호/E(비용화),F(자산화)-001(차수)
 자산화와 비용화로 구분하여 정의</t>
         </r>
       </text>
@@ -1981,27 +1981,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.5" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2800</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2800</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2189,7 +2189,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2209,7 +2209,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2229,7 +2229,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2249,7 +2249,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2269,7 +2269,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2289,7 +2289,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2309,7 +2309,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2329,7 +2329,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2349,7 +2349,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2369,7 +2369,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2389,7 +2389,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2409,7 +2409,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2429,7 +2429,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2449,7 +2449,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2469,7 +2469,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2489,7 +2489,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2509,7 +2509,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2529,7 +2529,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2549,7 +2549,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2569,7 +2569,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2589,7 +2589,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2609,7 +2609,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2629,7 +2629,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2649,7 +2649,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2669,7 +2669,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2689,7 +2689,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2709,7 +2709,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2729,7 +2729,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2749,7 +2749,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2769,7 +2769,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
